--- a/data/trans_bre/P15_5-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P15_5-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -636,27 +636,27 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,07</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,63</t>
+          <t>7,2</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,87</t>
+          <t>10,88</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -666,22 +666,22 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>23,6%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>44,64%</t>
+          <t>44,69%</t>
         </is>
       </c>
     </row>
@@ -694,52 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 5,34</t>
+          <t>-11,64; 4,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 9,98</t>
+          <t>-5,64; 10,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 16,2</t>
+          <t>-5,91; 16,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 17,05</t>
+          <t>-5,01; 18,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 22,38</t>
+          <t>-1,77; 23,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 6,43</t>
+          <t>-13,63; 6,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 12,29</t>
+          <t>-6,29; 13,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,74; 37,32</t>
+          <t>-10,15; 37,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 70,52</t>
+          <t>-12,95; 77,55</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 127,1</t>
+          <t>-5,85; 131,31</t>
         </is>
       </c>
     </row>
@@ -761,47 +761,47 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-0,66%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>-1,53%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>16,9%</t>
         </is>
       </c>
     </row>
@@ -814,52 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 10,26</t>
+          <t>-5,32; 9,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 8,95</t>
+          <t>-3,7; 8,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 10,22</t>
+          <t>-10,27; 10,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 10,88</t>
+          <t>-14,92; 9,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 15,24</t>
+          <t>-7,28; 14,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 13,25</t>
+          <t>-6,05; 12,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 10,53</t>
+          <t>-4,01; 10,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,87; 21,48</t>
+          <t>-17,33; 24,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-27,05; 36,6</t>
+          <t>-31,29; 31,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-20,53; 89,91</t>
+          <t>-23,9; 89,85</t>
         </is>
       </c>
     </row>
@@ -881,47 +881,47 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,28</t>
+          <t>-5,6</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,67</t>
+          <t>-7,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-8,06</t>
+          <t>-7,69</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,59</t>
+          <t>-4,6</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,55%</t>
+          <t>-5,54%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-7,17%</t>
+          <t>-6,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-12,74%</t>
+          <t>-12,4%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-20,13%</t>
+          <t>-19,41%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-15,16%</t>
+          <t>-15,21%</t>
         </is>
       </c>
     </row>
@@ -934,52 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 2,97</t>
+          <t>-10,99; 3,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 1,22</t>
+          <t>-11,75; 0,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,23; 0,17</t>
+          <t>-15,69; 0,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 0,49</t>
+          <t>-17,65; 0,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 4,6</t>
+          <t>-14,24; 3,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,78; 4,14</t>
+          <t>-13,37; 4,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 1,48</t>
+          <t>-12,92; 1,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,76; 0,37</t>
+          <t>-24,31; 1,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-37,01; 1,2</t>
+          <t>-37,18; 2,5</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-37,68; 20,03</t>
+          <t>-40,13; 14,22</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1001,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,28</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1026,17 +1026,17 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-8,51%</t>
+          <t>-7,87%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1054,52 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 7,94</t>
+          <t>-6,2; 7,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 6,11</t>
+          <t>-5,04; 5,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 12,58</t>
+          <t>-2,08; 13,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 4,05</t>
+          <t>-11,31; 4,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 7,5</t>
+          <t>-10,48; 8,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 10,97</t>
+          <t>-7,76; 10,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 7,34</t>
+          <t>-5,65; 6,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 26,29</t>
+          <t>-3,78; 28,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-24,85; 12,32</t>
+          <t>-25,1; 13,57</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-32,33; 40,52</t>
+          <t>-37,37; 46,57</t>
         </is>
       </c>
     </row>
@@ -1121,22 +1121,22 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1146,22 +1146,22 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,92%</t>
+          <t>-1,68%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-7,77%</t>
+          <t>-7,8%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 2,64</t>
+          <t>-11,61; 2,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 7,46</t>
+          <t>-4,8; 7,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 7,9</t>
+          <t>-9,85; 6,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 9,33</t>
+          <t>-7,99; 10,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 6,46</t>
+          <t>-11,85; 6,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,24; 3,12</t>
+          <t>-13,27; 3,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 8,94</t>
+          <t>-5,41; 8,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 13,82</t>
+          <t>-15,37; 12,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 24,51</t>
+          <t>-16,99; 27,43</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-35,27; 24,46</t>
+          <t>-32,23; 27,51</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,58</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1266,22 +1266,22 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-3,07%</t>
+          <t>-2,58%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-0,3%</t>
+          <t>-0,62%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-2,86%</t>
+          <t>-2,84%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 9,23</t>
+          <t>-3,28; 9,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 14,5</t>
+          <t>-0,05; 13,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 7,64</t>
+          <t>-9,57; 7,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 9,95</t>
+          <t>-9,92; 9,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 11,75</t>
+          <t>-14,12; 10,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 11,6</t>
+          <t>-3,59; 11,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,46; 17,63</t>
+          <t>-0,06; 16,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 10,96</t>
+          <t>-11,95; 10,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 17,27</t>
+          <t>-14,29; 16,13</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-25,09; 28,04</t>
+          <t>-26,77; 27,16</t>
         </is>
       </c>
     </row>
@@ -1361,17 +1361,17 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1386,17 +1386,17 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,85%</t>
+          <t>-0,29%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1414,52 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 2,49</t>
+          <t>-3,55; 2,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 3,77</t>
+          <t>-1,89; 3,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 4,52</t>
+          <t>-2,86; 4,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 4,13</t>
+          <t>-4,22; 4,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 5,84</t>
+          <t>-2,94; 5,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 3,22</t>
+          <t>-4,32; 2,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 4,38</t>
+          <t>-2,1; 4,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 7,99</t>
+          <t>-4,75; 8,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 10,71</t>
+          <t>-9,35; 10,12</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 21,37</t>
+          <t>-9,3; 21,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
